--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.5753920795609879</v>
+        <v>0.4108978844957375</v>
       </c>
       <c r="D2">
-        <v>0.5651032607391722</v>
+        <v>0.6851222294128634</v>
       </c>
       <c r="E2">
         <v>0.9370125184910927</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.07185174495149289</v>
+        <v>-0.04902813066291979</v>
       </c>
       <c r="D3">
-        <v>0.9427284502359234</v>
+        <v>0.9613392686794529</v>
       </c>
       <c r="E3">
         <v>0.9370125184910927</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.7744741451843706</v>
+        <v>0.8171163532916009</v>
       </c>
       <c r="D4">
-        <v>0.4387594966545583</v>
+        <v>0.4226229798549848</v>
       </c>
       <c r="E4">
         <v>0.9370125184910927</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.6251475489664692</v>
+        <v>0.4785386810923075</v>
       </c>
       <c r="D5">
-        <v>0.5319591744371093</v>
+        <v>0.6369883361377542</v>
       </c>
       <c r="E5">
         <v>0.9370125184910927</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.7386210108538224</v>
+        <v>-0.5994576667036519</v>
       </c>
       <c r="D6">
-        <v>0.4602403953086838</v>
+        <v>0.5549917442185048</v>
       </c>
       <c r="E6">
         <v>0.8989578665554502</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.2481276277062896</v>
+        <v>0.2781818926557545</v>
       </c>
       <c r="D7">
-        <v>0.8040660024060637</v>
+        <v>0.7834704883977843</v>
       </c>
       <c r="E7">
         <v>0.8989578665554502</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.08285825462705887</v>
+        <v>0.1350207046742724</v>
       </c>
       <c r="D8">
-        <v>0.9339741245641004</v>
+        <v>0.8938232320861812</v>
       </c>
       <c r="E8">
         <v>0.8989578665554502</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.052923775550324</v>
+        <v>1.170866014588386</v>
       </c>
       <c r="D9">
-        <v>0.2925274322719329</v>
+        <v>0.2541792372173757</v>
       </c>
       <c r="E9">
         <v>0.9412143568380654</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.8527608312993472</v>
+        <v>0.7460440740220322</v>
       </c>
       <c r="D10">
-        <v>0.3939135767585831</v>
+        <v>0.4635386211443322</v>
       </c>
       <c r="E10">
         <v>0.9412143568380654</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.2149746583027549</v>
+        <v>-0.2402110480742554</v>
       </c>
       <c r="D11">
-        <v>0.8298131840849976</v>
+        <v>0.812390821364205</v>
       </c>
       <c r="E11">
         <v>0.8852453440893463</v>
